--- a/piano.xlsx
+++ b/piano.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUF556UVDM154T\Università\Hypermedia\September 2019\Repo\Hypermedia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D528269A-BFC3-4F4D-87F0-6EA87C23AEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FEF06F-9206-4E72-98A8-34642A94499B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1125" windowWidth="16545" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>backend</t>
   </si>
@@ -73,6 +73,54 @@
   </si>
   <si>
     <t>tutorial base</t>
+  </si>
+  <si>
+    <t>Elementi Tabella</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Reservations</t>
+  </si>
+  <si>
+    <t>Artistic Events</t>
+  </si>
+  <si>
+    <t>Seminar</t>
+  </si>
+  <si>
+    <t>Artists</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Gallery</t>
+  </si>
+  <si>
+    <t>Played</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ognuno il suo </t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -96,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -104,13 +152,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -391,21 +481,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -421,12 +511,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -440,12 +530,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43753</v>
       </c>
@@ -453,7 +543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -464,7 +554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -472,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -480,10 +570,138 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/piano.xlsx
+++ b/piano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FEF06F-9206-4E72-98A8-34642A94499B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7989F1F4-DD2D-4929-B458-5B7979A76C19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1125" windowWidth="16545" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1470" windowWidth="16545" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>backend</t>
   </si>
@@ -121,14 +121,25 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>discutere pagine frontend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -195,12 +206,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -481,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +507,7 @@
     <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -511,12 +523,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -530,12 +542,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43753</v>
       </c>
@@ -543,7 +555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -554,7 +566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -562,19 +574,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -588,7 +601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -602,7 +615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -616,7 +629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -698,6 +711,19 @@
       </c>
       <c r="D21" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43795</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/piano.xlsx
+++ b/piano.xlsx
@@ -1,31 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sablo\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7989F1F4-DD2D-4929-B458-5B7979A76C19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1470" windowWidth="16545" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>paolo</author>
+  </authors>
+  <commentList>
+    <comment ref="H14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>paolo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+LOGIN
+SIGN UP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="J16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>paolo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Giorno
+Type
+calendar</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>backend</t>
   </si>
@@ -33,6 +82,12 @@
     <t>a mano</t>
   </si>
   <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>aggiungere tab prenotazione</t>
+  </si>
+  <si>
     <t>step</t>
   </si>
   <si>
@@ -48,31 +103,31 @@
     <t>post su prenotazione</t>
   </si>
   <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>aggiungere tab prenotazione</t>
+    <t>deadline</t>
   </si>
   <si>
     <t>Paolo</t>
   </si>
   <si>
+    <t>tutorial base</t>
+  </si>
+  <si>
     <t>Matteo</t>
   </si>
   <si>
+    <t>auth tutorial</t>
+  </si>
+  <si>
     <t>Roberto</t>
   </si>
   <si>
     <t>postgre tutorial</t>
   </si>
   <si>
-    <t>auth tutorial</t>
-  </si>
-  <si>
-    <t>deadline</t>
-  </si>
-  <si>
-    <t>tutorial base</t>
+    <t>Fatto/da Fare</t>
+  </si>
+  <si>
+    <t>Accessibilità</t>
   </si>
   <si>
     <t>Elementi Tabella</t>
@@ -87,9 +142,30 @@
     <t>DELETE</t>
   </si>
   <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
     <t>User</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ognuno il suo </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>da fare</t>
+  </si>
+  <si>
     <t>Reservations</t>
   </si>
   <si>
@@ -99,28 +175,37 @@
     <t>Seminar</t>
   </si>
   <si>
+    <t>Y x Data</t>
+  </si>
+  <si>
     <t>Artists</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Companies</t>
   </si>
   <si>
+    <t>Performer</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>cascade</t>
+  </si>
+  <si>
+    <t>Not a table</t>
+  </si>
+  <si>
+    <t>not a table</t>
+  </si>
+  <si>
     <t>Gallery</t>
   </si>
   <si>
     <t>Played</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ognuno il suo </t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>discutere pagine frontend</t>
@@ -129,13 +214,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,19 +234,375 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -165,66 +612,406 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -273,7 +1060,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -308,7 +1095,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -482,32 +1269,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="24.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="26.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="9.85714285714286" customWidth="1"/>
+    <col min="6" max="6" width="3.57142857142857" customWidth="1"/>
+    <col min="7" max="8" width="17.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="12.7142857142857" customWidth="1"/>
+    <col min="10" max="11" width="14.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,219 +1302,401 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43753</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" ht="20.25" spans="1:11">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" ht="20.25" spans="1:11">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:11">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="K15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="I16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="I17" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="J17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="J18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="J19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:12">
+      <c r="A20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="K20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="D21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:12">
+      <c r="A22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
         <v>43795</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="I12:J12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/piano.xlsx
+++ b/piano.xlsx
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -247,21 +247,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +322,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -283,21 +338,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,71 +352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,9 +368,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +400,11 @@
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -417,6 +415,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,12 +517,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,145 +529,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,6 +683,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -713,17 +726,30 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -746,191 +772,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -954,8 +952,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1277,8 +1273,8 @@
   <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1559,7 +1555,7 @@
         <v>34</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>28</v>
@@ -1568,7 +1564,7 @@
         <v>35</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1653,7 +1649,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="15"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" ht="15.75" spans="1:12">
       <c r="A22" s="10" t="s">
@@ -1673,7 +1669,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="16"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
